--- a/automationexercise/src/main/resources/data/AutomationExerciseTestData.xlsx
+++ b/automationexercise/src/main/resources/data/AutomationExerciseTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumLearning\automationexercise\src\main\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumLearning\Git repro\automationexercise\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60437F25-6E5B-45EC-8130-51683C90ED6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051290CD-A1DB-45DF-94DD-7A6D56016A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="744" firstSheet="10" activeTab="15" xr2:uid="{3C123D70-4ADA-48D1-8EF5-0FD8D773B255}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="744" firstSheet="14" activeTab="18" xr2:uid="{3C123D70-4ADA-48D1-8EF5-0FD8D773B255}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupWithNewID" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
     <sheet name="CartEmail" sheetId="11" r:id="rId14"/>
     <sheet name="SignupWithOldID" sheetId="2" r:id="rId15"/>
     <sheet name="DeleteProduct" sheetId="16" r:id="rId16"/>
+    <sheet name="viewCategory" sheetId="17" r:id="rId17"/>
+    <sheet name="SelectBrand" sheetId="18" r:id="rId18"/>
+    <sheet name="SearchAndVerify" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>signupName</t>
   </si>
@@ -329,6 +332,39 @@
   </si>
   <si>
     <t>ORDER PLACED!</t>
+  </si>
+  <si>
+    <t>CategoryHeader</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>requiredCategory</t>
+  </si>
+  <si>
+    <t>requiredCategory2</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
+    <t>secondBrandName</t>
+  </si>
+  <si>
+    <t>firstBrandName</t>
+  </si>
+  <si>
+    <t>H&amp;M</t>
+  </si>
+  <si>
+    <t>Little Girls Mr. Panda Shirt</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4903785D-1A52-454F-9E0C-D35550719607}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1240,6 +1276,118 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C05A1A4-222A-46C3-AAD3-DE11DE88B132}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE3ED5E-6305-426E-842A-99D683B70CC0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76500FB4-6BB5-4AEC-8D2E-208AB199A396}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{97CC31BD-D867-4545-A724-2939F8E91A03}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{85A7A129-1001-4437-A08F-C8C819D9E7E0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/automationexercise/src/main/resources/data/AutomationExerciseTestData.xlsx
+++ b/automationexercise/src/main/resources/data/AutomationExerciseTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumLearning\Git repro\automationexercise\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051290CD-A1DB-45DF-94DD-7A6D56016A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06B6FFE-D69D-4689-85DF-C30B76BA8566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" tabRatio="744" firstSheet="14" activeTab="18" xr2:uid="{3C123D70-4ADA-48D1-8EF5-0FD8D773B255}"/>
+    <workbookView xWindow="3600" yWindow="410" windowWidth="14400" windowHeight="7360" tabRatio="744" firstSheet="8" activeTab="9" xr2:uid="{3C123D70-4ADA-48D1-8EF5-0FD8D773B255}"/>
   </bookViews>
   <sheets>
     <sheet name="SignupWithNewID" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,20 @@
     <sheet name="ProductOverlayClick" sheetId="12" r:id="rId8"/>
     <sheet name="ChangeTheQuantity" sheetId="13" r:id="rId9"/>
     <sheet name="placeorderwithRegUser" sheetId="14" r:id="rId10"/>
-    <sheet name="placeorderwithLoggedinUser" sheetId="15" r:id="rId11"/>
-    <sheet name="SearchProduct" sheetId="9" r:id="rId12"/>
-    <sheet name="EmailData" sheetId="10" r:id="rId13"/>
-    <sheet name="CartEmail" sheetId="11" r:id="rId14"/>
-    <sheet name="SignupWithOldID" sheetId="2" r:id="rId15"/>
-    <sheet name="DeleteProduct" sheetId="16" r:id="rId16"/>
-    <sheet name="viewCategory" sheetId="17" r:id="rId17"/>
-    <sheet name="SelectBrand" sheetId="18" r:id="rId18"/>
-    <sheet name="SearchAndVerify" sheetId="19" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId11"/>
+    <sheet name="DownloadInvoice" sheetId="24" r:id="rId12"/>
+    <sheet name="placeorderwithLoggedinUser" sheetId="15" r:id="rId13"/>
+    <sheet name="SearchProduct" sheetId="9" r:id="rId14"/>
+    <sheet name="TC021_SearchAndVerify" sheetId="20" r:id="rId15"/>
+    <sheet name="TC022_RecommendedProduct" sheetId="21" r:id="rId16"/>
+    <sheet name="TC023_VerifyAddressDetailsInChe" sheetId="22" r:id="rId17"/>
+    <sheet name="EmailData" sheetId="10" r:id="rId18"/>
+    <sheet name="CartEmail" sheetId="11" r:id="rId19"/>
+    <sheet name="SignupWithOldID" sheetId="2" r:id="rId20"/>
+    <sheet name="DeleteProduct" sheetId="16" r:id="rId21"/>
+    <sheet name="viewCategory" sheetId="17" r:id="rId22"/>
+    <sheet name="SelectBrand" sheetId="18" r:id="rId23"/>
+    <sheet name="SearchAndVerify" sheetId="19" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="86">
   <si>
     <t>signupName</t>
   </si>
@@ -79,12 +84,6 @@
   </si>
   <si>
     <t>Lname</t>
-  </si>
-  <si>
-    <t>jayaprakash</t>
-  </si>
-  <si>
-    <t>Devaraj</t>
   </si>
   <si>
     <t>Address1</t>
@@ -365,6 +364,42 @@
   </si>
   <si>
     <t>Little Girls Mr. Panda Shirt</t>
+  </si>
+  <si>
+    <t>ReviewerName</t>
+  </si>
+  <si>
+    <t>ReviewerInfo</t>
+  </si>
+  <si>
+    <t>Ram@gmail.com</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Winter Top</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>654321</t>
+  </si>
+  <si>
+    <t>1231231231</t>
+  </si>
+  <si>
+    <t>Printed Off Shoulder Top - White</t>
+  </si>
+  <si>
+    <t>Ramkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>Half Sleeves Top Schiffli Detailing - Pink</t>
   </si>
 </sst>
 </file>
@@ -777,7 +812,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,13 +846,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -826,27 +861,27 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -855,40 +890,40 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>641109</v>
-      </c>
-      <c r="N2" s="2">
-        <v>8122212313</v>
+        <v>80</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6C819C71-26AB-48BB-9929-0FC61F203B40}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{CAEB491E-A1A6-4CC6-9570-33993FF54B87}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{BFFF0737-D715-4C8B-8F94-C009226490D4}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{AF9133C6-9184-4C05-98D2-58F0A9BDAA06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -899,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011B8EB2-BE03-4A13-BE0C-A2C167CE96DD}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:V2"/>
     </sheetView>
   </sheetViews>
@@ -910,127 +945,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="N2" s="2">
+        <v>641109</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>641109</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="S2">
         <v>123</v>
@@ -1042,13 +1077,13 @@
         <v>2034</v>
       </c>
       <c r="V2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E18DEE50-57DA-4856-AE9A-D9E4D17F616A}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{03EF3AB4-500A-4EC2-8F58-6D2E5C299784}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{585EBDF5-494F-4B7B-AE9D-76F1F2ACF375}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{80D41DBF-C1A0-457A-AAC7-864AFF92EBE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1056,6 +1091,174 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCA3441-646B-4DBE-9D39-2EF78831F30F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6DE275-46F6-4017-93EC-06AA7A3763BB}">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2">
+        <v>641109</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2">
+        <v>123</v>
+      </c>
+      <c r="T2">
+        <v>12</v>
+      </c>
+      <c r="U2">
+        <v>2034</v>
+      </c>
+      <c r="V2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{0B937736-F1DF-48E9-ADB6-3123197B1713}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{F5491F3E-4BE8-491D-85E4-B8F241C11D59}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319DF7FC-122A-4824-8ED5-DE92A4EAA56C}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1067,54 +1270,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G2">
         <v>123</v>
@@ -1126,7 +1329,7 @@
         <v>2034</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1138,24 +1341,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959B3062-5B02-4CE4-A439-2E1E46435ADD}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="BX1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1367,197 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6D4857-4BCD-40BE-AAFA-46DA66F598D1}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B24E0B21-5561-47C7-9FD4-538D3426953E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DABE69-DFE8-4DF6-BC81-46365285785B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FD99DE-E302-4FC8-A367-93CC3DAABA8F}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="14" max="14" width="16.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0B404343-406B-4506-A8CC-54D4B59951AE}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{1D4E8F47-6FA8-4409-BE49-1352F1EE62E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B3A5A1-F37F-4C1A-B532-6F0B122A6128}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1176,12 +1569,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CE0BA9-FEBF-4A13-991B-DD318D883872}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1204,12 +1597,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1220,7 +1613,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A51F75F-2A56-44A3-A929-B8CA867DD6D3}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BDFD9C28-C396-4901-B63E-C1170CD56C4A}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{FE83D244-A629-429F-A89F-39407D794A99}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2875B4B2-DCE2-4FEF-B515-C422EA643747}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1243,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4903785D-1A52-454F-9E0C-D35550719607}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1266,20 +1695,20 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C05A1A4-222A-46C3-AAD3-DE11DE88B132}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1291,24 +1720,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE3ED5E-6305-426E-842A-99D683B70CC0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1329,18 +1758,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1349,11 +1778,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76500FB4-6BB5-4AEC-8D2E-208AB199A396}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1361,21 +1790,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -1391,42 +1820,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A51F75F-2A56-44A3-A929-B8CA867DD6D3}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BDFD9C28-C396-4901-B63E-C1170CD56C4A}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{FE83D244-A629-429F-A89F-39407D794A99}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80C8B20-CFE2-497D-898B-9FA2A1E3386D}">
   <dimension ref="A1:B2"/>
@@ -1442,18 +1835,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1509,19 +1902,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1529,16 +1922,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1562,12 +1955,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="7"/>
     </row>
@@ -1592,22 +1985,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1631,9 +2024,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDB9637-C970-4925-9EAC-B7A3443FC119}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1641,38 +2066,6 @@
       <c r="A2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BDB9637-C970-4925-9EAC-B7A3443FC119}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
       <c r="B2" s="6">
         <v>4</v>
       </c>
